--- a/Good Recordings/8.10.Labels.xlsx
+++ b/Good Recordings/8.10.Labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A051E-5DA6-4E20-99C9-7C16ADC2AFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A12099-B233-4F3B-AC59-3AD20613DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E770FC50-7971-4A71-94ED-590DACB91E39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E770FC50-7971-4A71-94ED-590DACB91E39}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
         <v>1722.48</v>
       </c>
       <c r="B5" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
